--- a/data/cleaned_data/2019_TX.xlsx
+++ b/data/cleaned_data/2019_TX.xlsx
@@ -2178,7 +2178,7 @@
         <v>262</v>
       </c>
       <c r="D2">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="E2" t="s">
         <v>312</v>
@@ -2204,7 +2204,7 @@
         <v>263</v>
       </c>
       <c r="D3">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
         <v>313</v>
@@ -2230,7 +2230,7 @@
         <v>264</v>
       </c>
       <c r="D4">
-        <v>447</v>
+        <v>663</v>
       </c>
       <c r="E4" t="s">
         <v>314</v>
@@ -2256,7 +2256,7 @@
         <v>265</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
         <v>315</v>
@@ -2282,7 +2282,7 @@
         <v>266</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>316</v>
@@ -2308,7 +2308,7 @@
         <v>267</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>291</v>
@@ -2334,7 +2334,7 @@
         <v>268</v>
       </c>
       <c r="D8">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
         <v>317</v>
@@ -2360,7 +2360,7 @@
         <v>265</v>
       </c>
       <c r="D9">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
         <v>318</v>
@@ -2386,7 +2386,7 @@
         <v>266</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>319</v>
@@ -2406,7 +2406,7 @@
         <v>265</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>320</v>
@@ -2432,7 +2432,7 @@
         <v>269</v>
       </c>
       <c r="D12">
-        <v>488</v>
+        <v>758</v>
       </c>
       <c r="E12" t="s">
         <v>321</v>
@@ -2458,7 +2458,7 @@
         <v>270</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>322</v>
@@ -2478,7 +2478,7 @@
         <v>267</v>
       </c>
       <c r="D14">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
         <v>323</v>
@@ -2504,7 +2504,7 @@
         <v>271</v>
       </c>
       <c r="D15">
-        <v>1911</v>
+        <v>2999</v>
       </c>
       <c r="E15" t="s">
         <v>324</v>
@@ -2530,7 +2530,7 @@
         <v>272</v>
       </c>
       <c r="D16">
-        <v>17863</v>
+        <v>22972</v>
       </c>
       <c r="E16" t="s">
         <v>325</v>
@@ -2556,7 +2556,7 @@
         <v>265</v>
       </c>
       <c r="D17">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>326</v>
@@ -2576,7 +2576,7 @@
         <v>265</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>311</v>
@@ -2596,7 +2596,7 @@
         <v>273</v>
       </c>
       <c r="D19">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
         <v>327</v>
@@ -2616,7 +2616,7 @@
         <v>274</v>
       </c>
       <c r="D20">
-        <v>620</v>
+        <v>989</v>
       </c>
       <c r="E20" t="s">
         <v>328</v>
@@ -2642,7 +2642,7 @@
         <v>275</v>
       </c>
       <c r="D21">
-        <v>1470</v>
+        <v>2227</v>
       </c>
       <c r="E21" t="s">
         <v>329</v>
@@ -2668,7 +2668,7 @@
         <v>263</v>
       </c>
       <c r="D22">
-        <v>857</v>
+        <v>1665</v>
       </c>
       <c r="E22" t="s">
         <v>330</v>
@@ -2694,7 +2694,7 @@
         <v>276</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
         <v>331</v>
@@ -2714,7 +2714,7 @@
         <v>276</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
         <v>263</v>
@@ -2734,7 +2734,7 @@
         <v>270</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>332</v>
@@ -2754,7 +2754,7 @@
         <v>277</v>
       </c>
       <c r="D26">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="E26" t="s">
         <v>333</v>
@@ -2780,7 +2780,7 @@
         <v>273</v>
       </c>
       <c r="D27">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
         <v>334</v>
@@ -2806,7 +2806,7 @@
         <v>278</v>
       </c>
       <c r="D28">
-        <v>221</v>
+        <v>356</v>
       </c>
       <c r="E28" t="s">
         <v>335</v>
@@ -2826,7 +2826,7 @@
         <v>268</v>
       </c>
       <c r="D29">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="E29" t="s">
         <v>336</v>
@@ -2852,7 +2852,7 @@
         <v>267</v>
       </c>
       <c r="D30">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
         <v>337</v>
@@ -2878,7 +2878,7 @@
         <v>268</v>
       </c>
       <c r="D31">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
         <v>338</v>
@@ -2904,7 +2904,7 @@
         <v>279</v>
       </c>
       <c r="D32">
-        <v>3060</v>
+        <v>3813</v>
       </c>
       <c r="E32" t="s">
         <v>339</v>
@@ -2930,7 +2930,7 @@
         <v>273</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
         <v>340</v>
@@ -2956,7 +2956,7 @@
         <v>277</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
         <v>341</v>
@@ -2982,7 +2982,7 @@
         <v>278</v>
       </c>
       <c r="D35">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
         <v>342</v>
@@ -3002,7 +3002,7 @@
         <v>267</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
         <v>343</v>
@@ -3022,7 +3022,7 @@
         <v>265</v>
       </c>
       <c r="D37">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="E37" t="s">
         <v>344</v>
@@ -3048,7 +3048,7 @@
         <v>263</v>
       </c>
       <c r="D38">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="E38" t="s">
         <v>345</v>
@@ -3074,7 +3074,7 @@
         <v>276</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
         <v>346</v>
@@ -3094,7 +3094,7 @@
         <v>266</v>
       </c>
       <c r="D40">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
         <v>347</v>
@@ -3120,7 +3120,7 @@
         <v>276</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
         <v>292</v>
@@ -3140,7 +3140,7 @@
         <v>277</v>
       </c>
       <c r="D42">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>348</v>
@@ -3160,7 +3160,7 @@
         <v>273</v>
       </c>
       <c r="D43">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
         <v>310</v>
@@ -3180,7 +3180,7 @@
         <v>280</v>
       </c>
       <c r="D44">
-        <v>4659</v>
+        <v>6793</v>
       </c>
       <c r="E44" t="s">
         <v>349</v>
@@ -3206,7 +3206,7 @@
         <v>267</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
         <v>350</v>
@@ -3226,7 +3226,7 @@
         <v>278</v>
       </c>
       <c r="D46">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="E46" t="s">
         <v>351</v>
@@ -3246,7 +3246,7 @@
         <v>281</v>
       </c>
       <c r="D47">
-        <v>734</v>
+        <v>1184</v>
       </c>
       <c r="E47" t="s">
         <v>352</v>
@@ -3272,7 +3272,7 @@
         <v>274</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
         <v>353</v>
@@ -3292,7 +3292,7 @@
         <v>266</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
         <v>354</v>
@@ -3312,7 +3312,7 @@
         <v>268</v>
       </c>
       <c r="D50">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
         <v>355</v>
@@ -3338,7 +3338,7 @@
         <v>278</v>
       </c>
       <c r="D51">
-        <v>242</v>
+        <v>459</v>
       </c>
       <c r="E51" t="s">
         <v>356</v>
@@ -3364,7 +3364,7 @@
         <v>277</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
         <v>357</v>
@@ -3384,7 +3384,7 @@
         <v>276</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
         <v>358</v>
@@ -3404,7 +3404,7 @@
         <v>273</v>
       </c>
       <c r="D54">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="E54" t="s">
         <v>359</v>
@@ -3424,7 +3424,7 @@
         <v>276</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
         <v>269</v>
@@ -3450,7 +3450,7 @@
         <v>273</v>
       </c>
       <c r="D56">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
         <v>360</v>
@@ -3470,7 +3470,7 @@
         <v>267</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
         <v>361</v>
@@ -3490,7 +3490,7 @@
         <v>282</v>
       </c>
       <c r="D58">
-        <v>21047</v>
+        <v>29114</v>
       </c>
       <c r="E58" t="s">
         <v>362</v>
@@ -3516,7 +3516,7 @@
         <v>273</v>
       </c>
       <c r="D59">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
         <v>327</v>
@@ -3542,7 +3542,7 @@
         <v>266</v>
       </c>
       <c r="D60">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>363</v>
@@ -3568,7 +3568,7 @@
         <v>277</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
         <v>364</v>
@@ -3588,7 +3588,7 @@
         <v>283</v>
       </c>
       <c r="D62">
-        <v>3313</v>
+        <v>4763</v>
       </c>
       <c r="E62" t="s">
         <v>365</v>
@@ -3614,7 +3614,7 @@
         <v>266</v>
       </c>
       <c r="D63">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>366</v>
@@ -3634,7 +3634,7 @@
         <v>277</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
         <v>286</v>
@@ -3654,7 +3654,7 @@
         <v>273</v>
       </c>
       <c r="D65">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E65" t="s">
         <v>367</v>
@@ -3674,7 +3674,7 @@
         <v>266</v>
       </c>
       <c r="D66">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E66" t="s">
         <v>358</v>
@@ -3694,7 +3694,7 @@
         <v>284</v>
       </c>
       <c r="D67">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E67" t="s">
         <v>368</v>
@@ -3720,7 +3720,7 @@
         <v>265</v>
       </c>
       <c r="D68">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
         <v>369</v>
@@ -3740,7 +3740,7 @@
         <v>285</v>
       </c>
       <c r="D69">
-        <v>1080</v>
+        <v>1903</v>
       </c>
       <c r="E69" t="s">
         <v>370</v>
@@ -3766,7 +3766,7 @@
         <v>270</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
         <v>364</v>
@@ -3786,7 +3786,7 @@
         <v>286</v>
       </c>
       <c r="D71">
-        <v>856</v>
+        <v>1222</v>
       </c>
       <c r="E71" t="s">
         <v>371</v>
@@ -3812,7 +3812,7 @@
         <v>287</v>
       </c>
       <c r="D72">
-        <v>4896</v>
+        <v>6805</v>
       </c>
       <c r="E72" t="s">
         <v>372</v>
@@ -3838,7 +3838,7 @@
         <v>288</v>
       </c>
       <c r="D73">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="E73" t="s">
         <v>373</v>
@@ -3864,7 +3864,7 @@
         <v>274</v>
       </c>
       <c r="D74">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="E74" t="s">
         <v>374</v>
@@ -3890,7 +3890,7 @@
         <v>288</v>
       </c>
       <c r="D75">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="E75" t="s">
         <v>375</v>
@@ -3916,7 +3916,7 @@
         <v>289</v>
       </c>
       <c r="D76">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="E76" t="s">
         <v>376</v>
@@ -3936,7 +3936,7 @@
         <v>276</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E77" t="s">
         <v>377</v>
@@ -3956,7 +3956,7 @@
         <v>276</v>
       </c>
       <c r="D78">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
         <v>378</v>
@@ -3996,7 +3996,7 @@
         <v>290</v>
       </c>
       <c r="D80">
-        <v>2721</v>
+        <v>3819</v>
       </c>
       <c r="E80" t="s">
         <v>379</v>
@@ -4022,7 +4022,7 @@
         <v>267</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
         <v>380</v>
@@ -4042,7 +4042,7 @@
         <v>278</v>
       </c>
       <c r="D82">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="E82" t="s">
         <v>381</v>
@@ -4062,7 +4062,7 @@
         <v>270</v>
       </c>
       <c r="D83">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E83" t="s">
         <v>382</v>
@@ -4088,7 +4088,7 @@
         <v>266</v>
       </c>
       <c r="D84">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="E84" t="s">
         <v>383</v>
@@ -4108,7 +4108,7 @@
         <v>291</v>
       </c>
       <c r="D85">
-        <v>1749</v>
+        <v>2461</v>
       </c>
       <c r="E85" t="s">
         <v>384</v>
@@ -4134,7 +4134,7 @@
         <v>277</v>
       </c>
       <c r="D86">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s">
         <v>385</v>
@@ -4154,7 +4154,7 @@
         <v>273</v>
       </c>
       <c r="D87">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="E87" t="s">
         <v>386</v>
@@ -4180,7 +4180,7 @@
         <v>284</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E88" t="s">
         <v>271</v>
@@ -4200,7 +4200,7 @@
         <v>270</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
         <v>387</v>
@@ -4226,7 +4226,7 @@
         <v>273</v>
       </c>
       <c r="D90">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="E90" t="s">
         <v>388</v>
@@ -4246,7 +4246,7 @@
         <v>268</v>
       </c>
       <c r="D91">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E91" t="s">
         <v>389</v>
@@ -4272,7 +4272,7 @@
         <v>292</v>
       </c>
       <c r="D92">
-        <v>566</v>
+        <v>944</v>
       </c>
       <c r="E92" t="s">
         <v>390</v>
@@ -4298,7 +4298,7 @@
         <v>293</v>
       </c>
       <c r="D93">
-        <v>1367</v>
+        <v>1773</v>
       </c>
       <c r="E93" t="s">
         <v>391</v>
@@ -4324,7 +4324,7 @@
         <v>294</v>
       </c>
       <c r="D94">
-        <v>119</v>
+        <v>285</v>
       </c>
       <c r="E94" t="s">
         <v>392</v>
@@ -4344,7 +4344,7 @@
         <v>263</v>
       </c>
       <c r="D95">
-        <v>611</v>
+        <v>851</v>
       </c>
       <c r="E95" t="s">
         <v>393</v>
@@ -4370,7 +4370,7 @@
         <v>266</v>
       </c>
       <c r="D96">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="E96" t="s">
         <v>394</v>
@@ -4396,7 +4396,7 @@
         <v>277</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
         <v>269</v>
@@ -4416,7 +4416,7 @@
         <v>273</v>
       </c>
       <c r="D98">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E98" t="s">
         <v>395</v>
@@ -4436,7 +4436,7 @@
         <v>276</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E99" t="s">
         <v>294</v>
@@ -4456,7 +4456,7 @@
         <v>267</v>
       </c>
       <c r="D100">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E100" t="s">
         <v>396</v>
@@ -4476,7 +4476,7 @@
         <v>262</v>
       </c>
       <c r="D101">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="E101" t="s">
         <v>397</v>
@@ -4502,7 +4502,7 @@
         <v>295</v>
       </c>
       <c r="D102">
-        <v>35653</v>
+        <v>46864</v>
       </c>
       <c r="E102" t="s">
         <v>398</v>
@@ -4528,7 +4528,7 @@
         <v>289</v>
       </c>
       <c r="D103">
-        <v>419</v>
+        <v>610</v>
       </c>
       <c r="E103" t="s">
         <v>399</v>
@@ -4554,7 +4554,7 @@
         <v>276</v>
       </c>
       <c r="D104">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E104" t="s">
         <v>400</v>
@@ -4574,7 +4574,7 @@
         <v>270</v>
       </c>
       <c r="D105">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E105" t="s">
         <v>401</v>
@@ -4594,7 +4594,7 @@
         <v>296</v>
       </c>
       <c r="D106">
-        <v>1015</v>
+        <v>1560</v>
       </c>
       <c r="E106" t="s">
         <v>402</v>
@@ -4620,7 +4620,7 @@
         <v>267</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E107" t="s">
         <v>308</v>
@@ -4640,7 +4640,7 @@
         <v>294</v>
       </c>
       <c r="D108">
-        <v>355</v>
+        <v>541</v>
       </c>
       <c r="E108" t="s">
         <v>403</v>
@@ -4666,7 +4666,7 @@
         <v>297</v>
       </c>
       <c r="D109">
-        <v>8815</v>
+        <v>10734</v>
       </c>
       <c r="E109" t="s">
         <v>404</v>
@@ -4692,7 +4692,7 @@
         <v>298</v>
       </c>
       <c r="D110">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="E110" t="s">
         <v>405</v>
@@ -4712,7 +4712,7 @@
         <v>265</v>
       </c>
       <c r="D111">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="E111" t="s">
         <v>406</v>
@@ -4738,7 +4738,7 @@
         <v>298</v>
       </c>
       <c r="D112">
-        <v>341</v>
+        <v>461</v>
       </c>
       <c r="E112" t="s">
         <v>407</v>
@@ -4764,7 +4764,7 @@
         <v>266</v>
       </c>
       <c r="D113">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="E113" t="s">
         <v>408</v>
@@ -4790,7 +4790,7 @@
         <v>273</v>
       </c>
       <c r="D114">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E114" t="s">
         <v>409</v>
@@ -4810,7 +4810,7 @@
         <v>274</v>
       </c>
       <c r="D115">
-        <v>178</v>
+        <v>319</v>
       </c>
       <c r="E115" t="s">
         <v>410</v>
@@ -4836,7 +4836,7 @@
         <v>288</v>
       </c>
       <c r="D116">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="E116" t="s">
         <v>411</v>
@@ -4862,7 +4862,7 @@
         <v>293</v>
       </c>
       <c r="D117">
-        <v>498</v>
+        <v>745</v>
       </c>
       <c r="E117" t="s">
         <v>412</v>
@@ -4888,7 +4888,7 @@
         <v>273</v>
       </c>
       <c r="D118">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E118" t="s">
         <v>413</v>
@@ -4914,7 +4914,7 @@
         <v>276</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
         <v>290</v>
@@ -4940,7 +4940,7 @@
         <v>273</v>
       </c>
       <c r="D120">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E120" t="s">
         <v>414</v>
@@ -4960,7 +4960,7 @@
         <v>267</v>
       </c>
       <c r="D121">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E121" t="s">
         <v>415</v>
@@ -4980,7 +4980,7 @@
         <v>266</v>
       </c>
       <c r="D122">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="E122" t="s">
         <v>416</v>
@@ -5000,7 +5000,7 @@
         <v>270</v>
       </c>
       <c r="D123">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E123" t="s">
         <v>417</v>
@@ -5020,7 +5020,7 @@
         <v>299</v>
       </c>
       <c r="D124">
-        <v>2269</v>
+        <v>3188</v>
       </c>
       <c r="E124" t="s">
         <v>418</v>
@@ -5046,7 +5046,7 @@
         <v>277</v>
       </c>
       <c r="D125">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E125" t="s">
         <v>304</v>
@@ -5066,7 +5066,7 @@
         <v>265</v>
       </c>
       <c r="D126">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="E126" t="s">
         <v>419</v>
@@ -5092,7 +5092,7 @@
         <v>300</v>
       </c>
       <c r="D127">
-        <v>812</v>
+        <v>1232</v>
       </c>
       <c r="E127" t="s">
         <v>420</v>
@@ -5118,7 +5118,7 @@
         <v>265</v>
       </c>
       <c r="D128">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E128" t="s">
         <v>343</v>
@@ -5144,7 +5144,7 @@
         <v>265</v>
       </c>
       <c r="D129">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="E129" t="s">
         <v>421</v>
@@ -5164,7 +5164,7 @@
         <v>301</v>
       </c>
       <c r="D130">
-        <v>628</v>
+        <v>797</v>
       </c>
       <c r="E130" t="s">
         <v>422</v>
@@ -5190,7 +5190,7 @@
         <v>274</v>
       </c>
       <c r="D131">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="E131" t="s">
         <v>423</v>
@@ -5216,7 +5216,7 @@
         <v>270</v>
       </c>
       <c r="D132">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E132" t="s">
         <v>387</v>
@@ -5242,7 +5242,7 @@
         <v>277</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E133" t="s">
         <v>284</v>
@@ -5262,7 +5262,7 @@
         <v>278</v>
       </c>
       <c r="D134">
-        <v>209</v>
+        <v>327</v>
       </c>
       <c r="E134" t="s">
         <v>397</v>
@@ -5288,7 +5288,7 @@
         <v>273</v>
       </c>
       <c r="D135">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E135" t="s">
         <v>414</v>
@@ -5308,7 +5308,7 @@
         <v>277</v>
       </c>
       <c r="D136">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E136" t="s">
         <v>264</v>
@@ -5328,7 +5328,7 @@
         <v>267</v>
       </c>
       <c r="D137">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E137" t="s">
         <v>286</v>
@@ -5348,7 +5348,7 @@
         <v>273</v>
       </c>
       <c r="D138">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="E138" t="s">
         <v>424</v>
@@ -5374,7 +5374,7 @@
         <v>277</v>
       </c>
       <c r="D139">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E139" t="s">
         <v>299</v>
@@ -5394,7 +5394,7 @@
         <v>264</v>
       </c>
       <c r="D140">
-        <v>277</v>
+        <v>424</v>
       </c>
       <c r="E140" t="s">
         <v>425</v>
@@ -5420,7 +5420,7 @@
         <v>277</v>
       </c>
       <c r="D141">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E141" t="s">
         <v>272</v>
@@ -5440,7 +5440,7 @@
         <v>268</v>
       </c>
       <c r="D142">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E142" t="s">
         <v>320</v>
@@ -5466,7 +5466,7 @@
         <v>273</v>
       </c>
       <c r="D143">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E143" t="s">
         <v>385</v>
@@ -5486,7 +5486,7 @@
         <v>270</v>
       </c>
       <c r="D144">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E144" t="s">
         <v>426</v>
@@ -5506,7 +5506,7 @@
         <v>262</v>
       </c>
       <c r="D145">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E145" t="s">
         <v>427</v>
@@ -5526,7 +5526,7 @@
         <v>278</v>
       </c>
       <c r="D146">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="E146" t="s">
         <v>428</v>
@@ -5546,7 +5546,7 @@
         <v>302</v>
       </c>
       <c r="D147">
-        <v>480</v>
+        <v>681</v>
       </c>
       <c r="E147" t="s">
         <v>429</v>
@@ -5572,7 +5572,7 @@
         <v>265</v>
       </c>
       <c r="D148">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="E148" t="s">
         <v>430</v>
@@ -5592,7 +5592,7 @@
         <v>276</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
         <v>286</v>
@@ -5612,7 +5612,7 @@
         <v>265</v>
       </c>
       <c r="D150">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="E150" t="s">
         <v>431</v>
@@ -5632,7 +5632,7 @@
         <v>284</v>
       </c>
       <c r="D151">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="E151" t="s">
         <v>432</v>
@@ -5652,7 +5652,7 @@
         <v>270</v>
       </c>
       <c r="D152">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E152" t="s">
         <v>433</v>
@@ -5678,7 +5678,7 @@
         <v>303</v>
       </c>
       <c r="D153">
-        <v>3374</v>
+        <v>4135</v>
       </c>
       <c r="E153" t="s">
         <v>434</v>
@@ -5704,7 +5704,7 @@
         <v>277</v>
       </c>
       <c r="D154">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E154" t="s">
         <v>435</v>
@@ -5730,7 +5730,7 @@
         <v>274</v>
       </c>
       <c r="D155">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E155" t="s">
         <v>436</v>
@@ -5750,7 +5750,7 @@
         <v>270</v>
       </c>
       <c r="D156">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E156" t="s">
         <v>437</v>
@@ -5770,7 +5770,7 @@
         <v>262</v>
       </c>
       <c r="D157">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E157" t="s">
         <v>438</v>
@@ -5796,7 +5796,7 @@
         <v>276</v>
       </c>
       <c r="D158">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E158" t="s">
         <v>271</v>
@@ -5816,7 +5816,7 @@
         <v>262</v>
       </c>
       <c r="D159">
-        <v>218</v>
+        <v>355</v>
       </c>
       <c r="E159" t="s">
         <v>439</v>
@@ -5842,7 +5842,7 @@
         <v>265</v>
       </c>
       <c r="D160">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="E160" t="s">
         <v>440</v>
@@ -5868,7 +5868,7 @@
         <v>266</v>
       </c>
       <c r="D161">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E161" t="s">
         <v>441</v>
@@ -5888,7 +5888,7 @@
         <v>304</v>
       </c>
       <c r="D162">
-        <v>1973</v>
+        <v>2940</v>
       </c>
       <c r="E162" t="s">
         <v>442</v>
@@ -5914,7 +5914,7 @@
         <v>270</v>
       </c>
       <c r="D163">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E163" t="s">
         <v>435</v>
@@ -5934,7 +5934,7 @@
         <v>274</v>
       </c>
       <c r="D164">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="E164" t="s">
         <v>443</v>
@@ -5960,7 +5960,7 @@
         <v>267</v>
       </c>
       <c r="D165">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E165" t="s">
         <v>444</v>
@@ -5980,7 +5980,7 @@
         <v>304</v>
       </c>
       <c r="D166">
-        <v>1550</v>
+        <v>2345</v>
       </c>
       <c r="E166" t="s">
         <v>445</v>
@@ -6006,7 +6006,7 @@
         <v>262</v>
       </c>
       <c r="D167">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="E167" t="s">
         <v>446</v>
@@ -6026,7 +6026,7 @@
         <v>266</v>
       </c>
       <c r="D168">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E168" t="s">
         <v>331</v>
@@ -6046,7 +6046,7 @@
         <v>273</v>
       </c>
       <c r="D169">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E169" t="s">
         <v>447</v>
@@ -6066,7 +6066,7 @@
         <v>274</v>
       </c>
       <c r="D170">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E170" t="s">
         <v>448</v>
@@ -6086,7 +6086,7 @@
         <v>305</v>
       </c>
       <c r="D171">
-        <v>2679</v>
+        <v>4300</v>
       </c>
       <c r="E171" t="s">
         <v>449</v>
@@ -6112,7 +6112,7 @@
         <v>273</v>
       </c>
       <c r="D172">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E172" t="s">
         <v>450</v>
@@ -6138,7 +6138,7 @@
         <v>266</v>
       </c>
       <c r="D173">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E173" t="s">
         <v>451</v>
@@ -6158,7 +6158,7 @@
         <v>277</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
         <v>350</v>
@@ -6178,7 +6178,7 @@
         <v>294</v>
       </c>
       <c r="D175">
-        <v>374</v>
+        <v>530</v>
       </c>
       <c r="E175" t="s">
         <v>452</v>
@@ -6204,7 +6204,7 @@
         <v>265</v>
       </c>
       <c r="D176">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="E176" t="s">
         <v>453</v>
@@ -6230,7 +6230,7 @@
         <v>278</v>
       </c>
       <c r="D177">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E177" t="s">
         <v>454</v>
@@ -6250,7 +6250,7 @@
         <v>274</v>
       </c>
       <c r="D178">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="E178" t="s">
         <v>455</v>
@@ -6276,7 +6276,7 @@
         <v>306</v>
       </c>
       <c r="D179">
-        <v>2810</v>
+        <v>3505</v>
       </c>
       <c r="E179" t="s">
         <v>456</v>
@@ -6302,7 +6302,7 @@
         <v>273</v>
       </c>
       <c r="D180">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E180" t="s">
         <v>457</v>
@@ -6322,7 +6322,7 @@
         <v>273</v>
       </c>
       <c r="D181">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E181" t="s">
         <v>368</v>
@@ -6348,7 +6348,7 @@
         <v>281</v>
       </c>
       <c r="D182">
-        <v>409</v>
+        <v>668</v>
       </c>
       <c r="E182" t="s">
         <v>458</v>
@@ -6374,7 +6374,7 @@
         <v>273</v>
       </c>
       <c r="D183">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="E183" t="s">
         <v>459</v>
@@ -6400,7 +6400,7 @@
         <v>274</v>
       </c>
       <c r="D184">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E184" t="s">
         <v>460</v>
@@ -6420,7 +6420,7 @@
         <v>293</v>
       </c>
       <c r="D185">
-        <v>504</v>
+        <v>783</v>
       </c>
       <c r="E185" t="s">
         <v>461</v>
@@ -6446,7 +6446,7 @@
         <v>270</v>
       </c>
       <c r="D186">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E186" t="s">
         <v>462</v>
@@ -6466,7 +6466,7 @@
         <v>268</v>
       </c>
       <c r="D187">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="E187" t="s">
         <v>463</v>
@@ -6486,7 +6486,7 @@
         <v>294</v>
       </c>
       <c r="D188">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="E188" t="s">
         <v>464</v>
@@ -6506,7 +6506,7 @@
         <v>307</v>
       </c>
       <c r="D189">
-        <v>954</v>
+        <v>1338</v>
       </c>
       <c r="E189" t="s">
         <v>465</v>
@@ -6532,7 +6532,7 @@
         <v>267</v>
       </c>
       <c r="D190">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E190" t="s">
         <v>466</v>
@@ -6552,7 +6552,7 @@
         <v>265</v>
       </c>
       <c r="D191">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E191" t="s">
         <v>467</v>
@@ -6572,7 +6572,7 @@
         <v>294</v>
       </c>
       <c r="D192">
-        <v>667</v>
+        <v>911</v>
       </c>
       <c r="E192" t="s">
         <v>468</v>
@@ -6598,7 +6598,7 @@
         <v>270</v>
       </c>
       <c r="D193">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E193" t="s">
         <v>469</v>
@@ -6618,7 +6618,7 @@
         <v>276</v>
       </c>
       <c r="D194">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E194" t="s">
         <v>466</v>
@@ -6638,7 +6638,7 @@
         <v>265</v>
       </c>
       <c r="D195">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E195" t="s">
         <v>470</v>
@@ -6658,7 +6658,7 @@
         <v>264</v>
       </c>
       <c r="D196">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="E196" t="s">
         <v>471</v>
@@ -6684,7 +6684,7 @@
         <v>276</v>
       </c>
       <c r="D197">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E197" t="s">
         <v>472</v>
@@ -6704,7 +6704,7 @@
         <v>276</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E198" t="s">
         <v>293</v>
@@ -6730,7 +6730,7 @@
         <v>278</v>
       </c>
       <c r="D199">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="E199" t="s">
         <v>473</v>
@@ -6756,7 +6756,7 @@
         <v>270</v>
       </c>
       <c r="D200">
-        <v>428</v>
+        <v>609</v>
       </c>
       <c r="E200" t="s">
         <v>474</v>
@@ -6782,7 +6782,7 @@
         <v>276</v>
       </c>
       <c r="D201">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E201" t="s">
         <v>378</v>
@@ -6802,7 +6802,7 @@
         <v>298</v>
       </c>
       <c r="D202">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="E202" t="s">
         <v>475</v>
@@ -6828,7 +6828,7 @@
         <v>266</v>
       </c>
       <c r="D203">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E203" t="s">
         <v>476</v>
@@ -6848,7 +6848,7 @@
         <v>270</v>
       </c>
       <c r="D204">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E204" t="s">
         <v>477</v>
@@ -6868,7 +6868,7 @@
         <v>265</v>
       </c>
       <c r="D205">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="E205" t="s">
         <v>478</v>
@@ -6888,7 +6888,7 @@
         <v>308</v>
       </c>
       <c r="D206">
-        <v>269</v>
+        <v>422</v>
       </c>
       <c r="E206" t="s">
         <v>479</v>
@@ -6914,7 +6914,7 @@
         <v>276</v>
       </c>
       <c r="D207">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E207" t="s">
         <v>358</v>
@@ -6934,7 +6934,7 @@
         <v>276</v>
       </c>
       <c r="D208">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E208" t="s">
         <v>297</v>
@@ -6954,7 +6954,7 @@
         <v>270</v>
       </c>
       <c r="D209">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="E209" t="s">
         <v>480</v>
@@ -6980,7 +6980,7 @@
         <v>277</v>
       </c>
       <c r="D210">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E210" t="s">
         <v>300</v>
@@ -7000,7 +7000,7 @@
         <v>278</v>
       </c>
       <c r="D211">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="E211" t="s">
         <v>481</v>
@@ -7020,7 +7020,7 @@
         <v>278</v>
       </c>
       <c r="D212">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E212" t="s">
         <v>444</v>
@@ -7040,7 +7040,7 @@
         <v>291</v>
       </c>
       <c r="D213">
-        <v>2033</v>
+        <v>2916</v>
       </c>
       <c r="E213" t="s">
         <v>482</v>
@@ -7066,7 +7066,7 @@
         <v>276</v>
       </c>
       <c r="D214">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E214" t="s">
         <v>483</v>
@@ -7086,7 +7086,7 @@
         <v>273</v>
       </c>
       <c r="D215">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="E215" t="s">
         <v>484</v>
@@ -7112,7 +7112,7 @@
         <v>267</v>
       </c>
       <c r="D216">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E216" t="s">
         <v>341</v>
@@ -7132,7 +7132,7 @@
         <v>270</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E217" t="s">
         <v>485</v>
@@ -7158,7 +7158,7 @@
         <v>267</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E218" t="s">
         <v>298</v>
@@ -7178,7 +7178,7 @@
         <v>270</v>
       </c>
       <c r="D219">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E219" t="s">
         <v>486</v>
@@ -7198,7 +7198,7 @@
         <v>277</v>
       </c>
       <c r="D220">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E220" t="s">
         <v>487</v>
@@ -7218,7 +7218,7 @@
         <v>309</v>
       </c>
       <c r="D221">
-        <v>12906</v>
+        <v>17857</v>
       </c>
       <c r="E221" t="s">
         <v>488</v>
@@ -7244,7 +7244,7 @@
         <v>288</v>
       </c>
       <c r="D222">
-        <v>1190</v>
+        <v>1802</v>
       </c>
       <c r="E222" t="s">
         <v>489</v>
@@ -7270,7 +7270,7 @@
         <v>266</v>
       </c>
       <c r="D223">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E223" t="s">
         <v>291</v>
@@ -7290,7 +7290,7 @@
         <v>267</v>
       </c>
       <c r="D224">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E224" t="s">
         <v>490</v>
@@ -7310,7 +7310,7 @@
         <v>277</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E225" t="s">
         <v>308</v>
@@ -7330,7 +7330,7 @@
         <v>268</v>
       </c>
       <c r="D226">
-        <v>270</v>
+        <v>383</v>
       </c>
       <c r="E226" t="s">
         <v>491</v>
@@ -7356,7 +7356,7 @@
         <v>268</v>
       </c>
       <c r="D227">
-        <v>421</v>
+        <v>772</v>
       </c>
       <c r="E227" t="s">
         <v>492</v>
@@ -7382,7 +7382,7 @@
         <v>310</v>
       </c>
       <c r="D228">
-        <v>7345</v>
+        <v>12532</v>
       </c>
       <c r="E228" t="s">
         <v>493</v>
@@ -7408,7 +7408,7 @@
         <v>270</v>
       </c>
       <c r="D229">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E229" t="s">
         <v>494</v>
@@ -7428,7 +7428,7 @@
         <v>268</v>
       </c>
       <c r="D230">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="E230" t="s">
         <v>495</v>
@@ -7448,7 +7448,7 @@
         <v>284</v>
       </c>
       <c r="D231">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="E231" t="s">
         <v>496</v>
@@ -7474,7 +7474,7 @@
         <v>268</v>
       </c>
       <c r="D232">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E232" t="s">
         <v>303</v>
@@ -7494,7 +7494,7 @@
         <v>266</v>
       </c>
       <c r="D233">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E233" t="s">
         <v>383</v>
@@ -7520,7 +7520,7 @@
         <v>265</v>
       </c>
       <c r="D234">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="E234" t="s">
         <v>497</v>
@@ -7546,7 +7546,7 @@
         <v>294</v>
       </c>
       <c r="D235">
-        <v>310</v>
+        <v>491</v>
       </c>
       <c r="E235" t="s">
         <v>498</v>
@@ -7566,7 +7566,7 @@
         <v>311</v>
       </c>
       <c r="D236">
-        <v>348</v>
+        <v>624</v>
       </c>
       <c r="E236" t="s">
         <v>479</v>
@@ -7592,7 +7592,7 @@
         <v>279</v>
       </c>
       <c r="D237">
-        <v>553</v>
+        <v>690</v>
       </c>
       <c r="E237" t="s">
         <v>499</v>
@@ -7618,7 +7618,7 @@
         <v>274</v>
       </c>
       <c r="D238">
-        <v>370</v>
+        <v>478</v>
       </c>
       <c r="E238" t="s">
         <v>500</v>
@@ -7644,7 +7644,7 @@
         <v>262</v>
       </c>
       <c r="D239">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="E239" t="s">
         <v>501</v>
@@ -7664,7 +7664,7 @@
         <v>267</v>
       </c>
       <c r="D240">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="E240" t="s">
         <v>502</v>
@@ -7690,7 +7690,7 @@
         <v>281</v>
       </c>
       <c r="D241">
-        <v>1496</v>
+        <v>2349</v>
       </c>
       <c r="E241" t="s">
         <v>503</v>
@@ -7716,7 +7716,7 @@
         <v>284</v>
       </c>
       <c r="D242">
-        <v>252</v>
+        <v>388</v>
       </c>
       <c r="E242" t="s">
         <v>504</v>
@@ -7742,7 +7742,7 @@
         <v>268</v>
       </c>
       <c r="D243">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E243" t="s">
         <v>505</v>
@@ -7762,7 +7762,7 @@
         <v>264</v>
       </c>
       <c r="D244">
-        <v>419</v>
+        <v>738</v>
       </c>
       <c r="E244" t="s">
         <v>506</v>
@@ -7788,7 +7788,7 @@
         <v>270</v>
       </c>
       <c r="D245">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E245" t="s">
         <v>507</v>
@@ -7814,7 +7814,7 @@
         <v>273</v>
       </c>
       <c r="D246">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="E246" t="s">
         <v>508</v>
@@ -7840,7 +7840,7 @@
         <v>300</v>
       </c>
       <c r="D247">
-        <v>1800</v>
+        <v>3026</v>
       </c>
       <c r="E247" t="s">
         <v>509</v>
@@ -7866,7 +7866,7 @@
         <v>266</v>
       </c>
       <c r="D248">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="E248" t="s">
         <v>510</v>
@@ -7892,7 +7892,7 @@
         <v>273</v>
       </c>
       <c r="D249">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="E249" t="s">
         <v>282</v>
@@ -7912,7 +7912,7 @@
         <v>264</v>
       </c>
       <c r="D250">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="E250" t="s">
         <v>511</v>
@@ -7938,7 +7938,7 @@
         <v>262</v>
       </c>
       <c r="D251">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="E251" t="s">
         <v>512</v>
@@ -7958,7 +7958,7 @@
         <v>276</v>
       </c>
       <c r="D252">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E252" t="s">
         <v>513</v>
@@ -7978,7 +7978,7 @@
         <v>270</v>
       </c>
       <c r="D253">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E253" t="s">
         <v>359</v>
@@ -7998,7 +7998,7 @@
         <v>277</v>
       </c>
       <c r="D254">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E254" t="s">
         <v>514</v>
@@ -8024,7 +8024,7 @@
         <v>270</v>
       </c>
       <c r="D255">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E255" t="s">
         <v>358</v>
